--- a/Montgomery_Fleet_Equipment_Inventory_FA_PART_1_END.xlsx
+++ b/Montgomery_Fleet_Equipment_Inventory_FA_PART_1_END.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5BC22896-0DDE-4DC1-B210-5FA0F4FC36A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5582E8EF-285E-42B8-83B9-51CC76430C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Montgomery_Fleet_Equipment_Inve" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,37 +655,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -710,14 +680,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C54" totalsRowShown="0">
-  <autoFilter ref="A1:C54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C54" totalsRowShown="0">
+  <autoFilter ref="A1:C54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="7" name="Department"/>
-    <tableColumn id="3" name="Equipment Class"/>
-    <tableColumn id="4" name="Equipment Count"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Department"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Equipment Class"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Equipment Count"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1017,17 +987,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.88671875" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1626,9 +1597,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A1048572:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
